--- a/resources/Master Sheet.xlsx
+++ b/resources/Master Sheet.xlsx
@@ -4,7 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Arrays" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Binary Trees" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
@@ -519,6 +520,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
@@ -9273,4 +9278,77 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="43.5"/>
+    <col customWidth="1" min="3" max="3" width="32.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/resources/Master Sheet.xlsx
+++ b/resources/Master Sheet.xlsx
@@ -5,7 +5,8 @@
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Arrays" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Binary Trees" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Binary Search Trees" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Binary Tree" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Name</t>
   </si>
@@ -411,6 +412,147 @@
 end of last inseted then update the end value of last answer to max of 
 current end element and end element of input
 </t>
+  </si>
+  <si>
+    <t>BST construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Write a BST class for a Binary Search Tree. The class should
+  support:
+  Inserting values with the insert method.
+    Removing values with the remove method; this method should
+    only remove the first instance of a given value.
+  Searching for values with the contains method.
+  Note that you can't remove values from a single-node tree. In other words,
+  calling the remove method on a single-node tree should simply not
+  do anything.
+  Each BST node has an integer value, a
+  left child node, and a right child node. A node is
+  said to be a valid BST node if and only if it satisfies the BST
+  property: its value is strictly greater than the values of every
+  node to its left; its value is less than or equal to the values
+  of every node to its right; and its children nodes are either valid
+  BST nodes themselves or None / null.</t>
+  </si>
+  <si>
+    <t>Valid BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Write a function that takes in a potentially invalid Binary Search Tree (BST)
+  and returns a boolean representing whether the BST is valid.
+  Each BST node has an integer value, a
+  left child node, and a right child node. A node is
+  said to be a valid BST node if and only if it satisfies the BST
+  property: its value is strictly greater than the values of every
+  node to its left; its value is less than or equal to the values
+  of every node to its right; and its children nodes are either valid
+  BST nodes themselves or None / null.
+  A BST is valid if and only if all of its nodes are valid
+  BST nodes.</t>
+  </si>
+  <si>
+    <t>catch here is that all left nodes should be less than root node
+And right side should be more than that
+create a helper function which will take tree, min, max
+And there try to update min and max value for left and right nodes
+Tip: always check left and right and is not null before calling the same function</t>
+  </si>
+  <si>
+    <t>Min Height BST</t>
+  </si>
+  <si>
+    <t>Write a function that takes in a non-empty sorted array of distinct integers,
+      constructs a BST from the integers, and returns the root of the BST.
+      The function should minimize the height of the BST.
+      You've been provided with a BST class that you'll have to use to
+      construct the BST.
+      Each BST node has an integer value, a
+      left child node, and a right child node. A node is
+      said to be a valid BST node if and only if it satisfies the BST
+      property: its value is strictly greater than the values of every
+      node to its left; its value is less than or equal to the values
+      of every node to its right; and its children nodes are either valid
+      BST nodes themselves or None / null.
+      A BST is valid if and only if all of its nodes are valid
+      BST nodes.
+      Note that the BST class already has an insert method
+      which you can use if you want.</t>
+  </si>
+  <si>
+    <t>Catch is find the mid 
+call the same method with indexes
+break: if endidx &lt; startIdx =&gt; return null
+else find appropriate start and end idx</t>
+  </si>
+  <si>
+    <t>Kth Largest Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Write a function that takes in a Binary Search Tree (BST) and a positive
+  integer k and returns the kth largest integer contained in the
+  BST.
+  You can assume that there will only be integer values in the BST and that
+  k is less than or equal to the number of nodes in the tree.
+  Also, for the purpose of this question, duplicate integers will be treated as
+  distinct values. In other words, the second largest value in a BST containing
+  values {5, 7, 7} will be 7—not 5.</t>
+  </si>
+  <si>
+    <t>Approach 1: do inorder traversla and return len-k element
+approach 2: create a node with value and noOfNodes visited
+And instead of LDR do RDL</t>
+  </si>
+  <si>
+    <t>Reconstruct BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  Given a non-empty array of integers representing the pre-order traversal of a
+  Binary Search Tree (BST), write a function that creates the relevant BST and
+  returns its root node.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if array size =0 return null
+size == 1 new node creation
+create a root node with the 0 index
+and loop to find index of element bigger than root
+call the same method with new arraylist
+</t>
+  </si>
+  <si>
+    <t>Branch Sums</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Write a function that takes in a Binary Tree and returns a list of its branch
+      sums ordered from leftmost branch sum to rightmost branch sum.
+      A branch sum is the sum of all values in a Binary Tree branch. A Binary Tree
+      branch is a path of nodes in a tree that starts at the root node and ends at
+      any leaf node.</t>
+  </si>
+  <si>
+    <t>Break if left and right both are null
+sum all the numbers in temp array a
+and add it to sum array.
+and remove the last element from the temp
+And also remove the last element from temp array
+once you have called the method using node.right</t>
+  </si>
+  <si>
+    <t>Node Depths</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The distance between a node in a Binary Tree and the tree's root is called the
+      node's depth.
+      Write a function that takes in a Binary Tree and returns the sum of its nodes'
+      depths.
+    </t>
+  </si>
+  <si>
+    <t>f(n, d) = d + f(left, d+1) + f(right, d+1)
+break condition
+if root == null =&gt; return 0
+if (left &amp;&amp; right == null) =&gt; return depth</t>
   </si>
 </sst>
 </file>
@@ -521,6 +663,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -9290,7 +9436,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="43.5"/>
+    <col customWidth="1" min="1" max="1" width="14.25"/>
+    <col customWidth="1" min="2" max="2" width="56.5"/>
     <col customWidth="1" min="3" max="3" width="32.38"/>
   </cols>
   <sheetData>
@@ -9348,6 +9495,99 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
     </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="61.13"/>
+    <col customWidth="1" min="3" max="3" width="38.5"/>
+  </cols>
+  <sheetData>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/resources/Master Sheet.xlsx
+++ b/resources/Master Sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="112">
   <si>
     <t>Name</t>
   </si>
@@ -226,34 +226,6 @@
 before adding the jump value to calculate index do a modulus</t>
   </si>
   <si>
-    <t>Closest Value in BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Write a function that takes in a Binary Search Tree (BST) and a target integer
-        value and returns the closest value to that target value contained in the BST.
-&lt;/p&gt;
-&lt;p&gt;You can assume that there will only be one closest value.&lt;/p&gt;
-&lt;p&gt;
-  Each BST node has an integer value, a
-left child node, and a right child node. A node is
-        said to be a valid BST node if and only if it satisfies the BST
-        property: its value is strictly greater than the values of every
-        node to its left; its value is less than or equal to the values
-        of every node to its right; and its children nodes are either valid
-BST nodes themselves or None / null.
-&lt;/p&gt;
-         Worst: O(n) time | O(1) space - where n is the number of nodes in the BST</t>
-  </si>
-  <si>
-    <t>Use of BST
-assume root is the closest.
-if target less than root then check left side assuming closest is the root element
-Break condition
-target-closest &gt; target - tree.value
-return tree.value (// basically updating the closest value)
-before iterating the left side check if tree.left is not null</t>
-  </si>
-  <si>
     <t>Monotonous Array</t>
   </si>
   <si>
@@ -271,9 +243,6 @@
 define a method to give you 1,-1 or 0
 find the first different number and calculate its sign.
 now inside for loop check if diff is not 0 and sign is not changing</t>
-  </si>
-  <si>
-    <t>Breadth First Search</t>
   </si>
   <si>
     <t>River Sizes</t>
@@ -364,7 +333,8 @@
 exists then traverse both left and right to find the length
 Store the length in some variable
 When you find the new paek then compare its value 
-with old one. Catch is left side traversal will be twice</t>
+with old one. Catch is left side traversal will be twice
+if no peak then continue with the next iteration</t>
   </si>
   <si>
     <t>First Duplicate</t>
@@ -403,7 +373,7 @@
       or equal to the end of that interval.</t>
   </si>
   <si>
-    <t xml:space="preserve">Catch here is, intervals wont be sorted
+    <t>Catch here is, intervals wont be sorted
 So first thing is to sort the intervals on first element.
 Create a list of answers and push the first array from sorted
 arrays
@@ -411,7 +381,35 @@
 end of last inserted value in answer list. If new start element is less than
 end of last inseted then update the end value of last answer to max of 
 current end element and end element of input
-</t>
+else push the current element in the answer</t>
+  </si>
+  <si>
+    <t>Closest Value in BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Write a function that takes in a Binary Search Tree (BST) and a target integer
+        value and returns the closest value to that target value contained in the BST.
+&lt;/p&gt;
+&lt;p&gt;You can assume that there will only be one closest value.&lt;/p&gt;
+&lt;p&gt;
+  Each BST node has an integer value, a
+left child node, and a right child node. A node is
+        said to be a valid BST node if and only if it satisfies the BST
+        property: its value is strictly greater than the values of every
+        node to its left; its value is less than or equal to the values
+        of every node to its right; and its children nodes are either valid
+BST nodes themselves or None / null.
+&lt;/p&gt;
+         Worst: O(n) time | O(1) space - where n is the number of nodes in the BST</t>
+  </si>
+  <si>
+    <t>Use of BST
+assume root is the closest.
+if target less than root then check left side assuming closest is the root element
+Break condition
+target-closest &gt; target - tree.value
+return tree.value (// basically updating the closest value)
+before iterating the left side check if tree.left is not null</t>
   </si>
   <si>
     <t>BST construction</t>
@@ -455,7 +453,11 @@
 And right side should be more than that
 create a helper function which will take tree, min, max
 And there try to update min and max value for left and right nodes
-Tip: always check left and right and is not null before calling the same function</t>
+Tip: always check left and right and is not null before calling the same function
+while calling using left side
+min = min, max = tree.value
+using right side
+min = tree.val, max = max</t>
   </si>
   <si>
     <t>Min Height BST</t>
@@ -554,6 +556,57 @@
 if root == null =&gt; return 0
 if (left &amp;&amp; right == null) =&gt; return depth</t>
   </si>
+  <si>
+    <t>Find successor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  Write a function that takes in a Binary Tree (where nodes have an additional
+  pointer to their parent node) as well as a node contained in that tree and
+  returns the given node's successor.
+  A node's successor is the next node to be visited (immediately after the given
+  node) when traversing its tree using the in-order tree-traversal technique. A
+  node has no successor if it's the last node to be visited in the in-order
+  traversal.
+  If a node has no successor, your function should return None /
+  null.
+  Each BinaryTree node has an integer value, a
+  parent node, a left child node, and a
+  right child node. Children nodes can either be
+  BinaryTree nodes themselves or None /
+  null.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approach 1: Do inorder traversal and find the element next
+to searched node
+Approach 2:  As per inorder LDR so next element is always the right element
+but 2 options
+A. right == null
+     Means we need to find the unvisited parent node of searched node
+B right != null
+    we have to find out the farthest left node on the right side  </t>
+  </si>
+  <si>
+    <t>Height Balanced Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  You're given the root node of a Binary Tree. Write a function that returns
+  true if this Binary Tree is height balanced and
+  false if it isn't.
+  A Binary Tree is height balanced if for each node in the tree, the difference
+  between the height of its left subtree and the height of its right subtree is
+  at most 1.</t>
+  </si>
+  <si>
+    <t>Logic is to make sure that all the nodes are balanced. Th
+think of left/right skewed tree.
+Create a new class which will store height and isBalanced(TreeiNfo)
+a method which will return treeinfo 
+if node is null then its height is -1 but balanced
+create the height which is max of left &amp; right +1
+and isbalanced is left balanced and right balanced and height difference &lt;=0</t>
+  </si>
 </sst>
 </file>
 
@@ -618,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -646,6 +699,15 @@
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -4285,98 +4347,125 @@
       <c r="Z4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="C6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="B7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -4403,83 +4492,25 @@
       <c r="Z9" s="9"/>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="A10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
+      <c r="B10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="5"/>
@@ -9410,16 +9441,6 @@
       <c r="A998" s="5"/>
       <c r="B998" s="5"/>
       <c r="C998" s="5"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="5"/>
-      <c r="B999" s="5"/>
-      <c r="C999" s="5"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="5"/>
-      <c r="B1000" s="5"/>
-      <c r="C1000" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -9448,7 +9469,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -9463,13 +9484,13 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>65</v>
+        <v>84</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -9497,55 +9518,3035 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="C3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>100</v>
-      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9">
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10">
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11">
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12">
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13">
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14">
+      <c r="C14" s="13"/>
+    </row>
+    <row r="15">
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16">
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17">
+      <c r="C17" s="13"/>
+    </row>
+    <row r="18">
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19">
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20">
+      <c r="C20" s="13"/>
+    </row>
+    <row r="21">
+      <c r="C21" s="13"/>
+    </row>
+    <row r="22">
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23">
+      <c r="C23" s="13"/>
+    </row>
+    <row r="24">
+      <c r="C24" s="13"/>
+    </row>
+    <row r="25">
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26">
+      <c r="C26" s="13"/>
+    </row>
+    <row r="27">
+      <c r="C27" s="13"/>
+    </row>
+    <row r="28">
+      <c r="C28" s="13"/>
+    </row>
+    <row r="29">
+      <c r="C29" s="13"/>
+    </row>
+    <row r="30">
+      <c r="C30" s="13"/>
+    </row>
+    <row r="31">
+      <c r="C31" s="13"/>
+    </row>
+    <row r="32">
+      <c r="C32" s="13"/>
+    </row>
+    <row r="33">
+      <c r="C33" s="13"/>
+    </row>
+    <row r="34">
+      <c r="C34" s="13"/>
+    </row>
+    <row r="35">
+      <c r="C35" s="13"/>
+    </row>
+    <row r="36">
+      <c r="C36" s="13"/>
+    </row>
+    <row r="37">
+      <c r="C37" s="13"/>
+    </row>
+    <row r="38">
+      <c r="C38" s="13"/>
+    </row>
+    <row r="39">
+      <c r="C39" s="13"/>
+    </row>
+    <row r="40">
+      <c r="C40" s="13"/>
+    </row>
+    <row r="41">
+      <c r="C41" s="13"/>
+    </row>
+    <row r="42">
+      <c r="C42" s="13"/>
+    </row>
+    <row r="43">
+      <c r="C43" s="13"/>
+    </row>
+    <row r="44">
+      <c r="C44" s="13"/>
+    </row>
+    <row r="45">
+      <c r="C45" s="13"/>
+    </row>
+    <row r="46">
+      <c r="C46" s="13"/>
+    </row>
+    <row r="47">
+      <c r="C47" s="13"/>
+    </row>
+    <row r="48">
+      <c r="C48" s="13"/>
+    </row>
+    <row r="49">
+      <c r="C49" s="13"/>
+    </row>
+    <row r="50">
+      <c r="C50" s="13"/>
+    </row>
+    <row r="51">
+      <c r="C51" s="13"/>
+    </row>
+    <row r="52">
+      <c r="C52" s="13"/>
+    </row>
+    <row r="53">
+      <c r="C53" s="13"/>
+    </row>
+    <row r="54">
+      <c r="C54" s="13"/>
+    </row>
+    <row r="55">
+      <c r="C55" s="13"/>
+    </row>
+    <row r="56">
+      <c r="C56" s="13"/>
+    </row>
+    <row r="57">
+      <c r="C57" s="13"/>
+    </row>
+    <row r="58">
+      <c r="C58" s="13"/>
+    </row>
+    <row r="59">
+      <c r="C59" s="13"/>
+    </row>
+    <row r="60">
+      <c r="C60" s="13"/>
+    </row>
+    <row r="61">
+      <c r="C61" s="13"/>
+    </row>
+    <row r="62">
+      <c r="C62" s="13"/>
+    </row>
+    <row r="63">
+      <c r="C63" s="13"/>
+    </row>
+    <row r="64">
+      <c r="C64" s="13"/>
+    </row>
+    <row r="65">
+      <c r="C65" s="13"/>
+    </row>
+    <row r="66">
+      <c r="C66" s="13"/>
+    </row>
+    <row r="67">
+      <c r="C67" s="13"/>
+    </row>
+    <row r="68">
+      <c r="C68" s="13"/>
+    </row>
+    <row r="69">
+      <c r="C69" s="13"/>
+    </row>
+    <row r="70">
+      <c r="C70" s="13"/>
+    </row>
+    <row r="71">
+      <c r="C71" s="13"/>
+    </row>
+    <row r="72">
+      <c r="C72" s="13"/>
+    </row>
+    <row r="73">
+      <c r="C73" s="13"/>
+    </row>
+    <row r="74">
+      <c r="C74" s="13"/>
+    </row>
+    <row r="75">
+      <c r="C75" s="13"/>
+    </row>
+    <row r="76">
+      <c r="C76" s="13"/>
+    </row>
+    <row r="77">
+      <c r="C77" s="13"/>
+    </row>
+    <row r="78">
+      <c r="C78" s="13"/>
+    </row>
+    <row r="79">
+      <c r="C79" s="13"/>
+    </row>
+    <row r="80">
+      <c r="C80" s="13"/>
+    </row>
+    <row r="81">
+      <c r="C81" s="13"/>
+    </row>
+    <row r="82">
+      <c r="C82" s="13"/>
+    </row>
+    <row r="83">
+      <c r="C83" s="13"/>
+    </row>
+    <row r="84">
+      <c r="C84" s="13"/>
+    </row>
+    <row r="85">
+      <c r="C85" s="13"/>
+    </row>
+    <row r="86">
+      <c r="C86" s="13"/>
+    </row>
+    <row r="87">
+      <c r="C87" s="13"/>
+    </row>
+    <row r="88">
+      <c r="C88" s="13"/>
+    </row>
+    <row r="89">
+      <c r="C89" s="13"/>
+    </row>
+    <row r="90">
+      <c r="C90" s="13"/>
+    </row>
+    <row r="91">
+      <c r="C91" s="13"/>
+    </row>
+    <row r="92">
+      <c r="C92" s="13"/>
+    </row>
+    <row r="93">
+      <c r="C93" s="13"/>
+    </row>
+    <row r="94">
+      <c r="C94" s="13"/>
+    </row>
+    <row r="95">
+      <c r="C95" s="13"/>
+    </row>
+    <row r="96">
+      <c r="C96" s="13"/>
+    </row>
+    <row r="97">
+      <c r="C97" s="13"/>
+    </row>
+    <row r="98">
+      <c r="C98" s="13"/>
+    </row>
+    <row r="99">
+      <c r="C99" s="13"/>
+    </row>
+    <row r="100">
+      <c r="C100" s="13"/>
+    </row>
+    <row r="101">
+      <c r="C101" s="13"/>
+    </row>
+    <row r="102">
+      <c r="C102" s="13"/>
+    </row>
+    <row r="103">
+      <c r="C103" s="13"/>
+    </row>
+    <row r="104">
+      <c r="C104" s="13"/>
+    </row>
+    <row r="105">
+      <c r="C105" s="13"/>
+    </row>
+    <row r="106">
+      <c r="C106" s="13"/>
+    </row>
+    <row r="107">
+      <c r="C107" s="13"/>
+    </row>
+    <row r="108">
+      <c r="C108" s="13"/>
+    </row>
+    <row r="109">
+      <c r="C109" s="13"/>
+    </row>
+    <row r="110">
+      <c r="C110" s="13"/>
+    </row>
+    <row r="111">
+      <c r="C111" s="13"/>
+    </row>
+    <row r="112">
+      <c r="C112" s="13"/>
+    </row>
+    <row r="113">
+      <c r="C113" s="13"/>
+    </row>
+    <row r="114">
+      <c r="C114" s="13"/>
+    </row>
+    <row r="115">
+      <c r="C115" s="13"/>
+    </row>
+    <row r="116">
+      <c r="C116" s="13"/>
+    </row>
+    <row r="117">
+      <c r="C117" s="13"/>
+    </row>
+    <row r="118">
+      <c r="C118" s="13"/>
+    </row>
+    <row r="119">
+      <c r="C119" s="13"/>
+    </row>
+    <row r="120">
+      <c r="C120" s="13"/>
+    </row>
+    <row r="121">
+      <c r="C121" s="13"/>
+    </row>
+    <row r="122">
+      <c r="C122" s="13"/>
+    </row>
+    <row r="123">
+      <c r="C123" s="13"/>
+    </row>
+    <row r="124">
+      <c r="C124" s="13"/>
+    </row>
+    <row r="125">
+      <c r="C125" s="13"/>
+    </row>
+    <row r="126">
+      <c r="C126" s="13"/>
+    </row>
+    <row r="127">
+      <c r="C127" s="13"/>
+    </row>
+    <row r="128">
+      <c r="C128" s="13"/>
+    </row>
+    <row r="129">
+      <c r="C129" s="13"/>
+    </row>
+    <row r="130">
+      <c r="C130" s="13"/>
+    </row>
+    <row r="131">
+      <c r="C131" s="13"/>
+    </row>
+    <row r="132">
+      <c r="C132" s="13"/>
+    </row>
+    <row r="133">
+      <c r="C133" s="13"/>
+    </row>
+    <row r="134">
+      <c r="C134" s="13"/>
+    </row>
+    <row r="135">
+      <c r="C135" s="13"/>
+    </row>
+    <row r="136">
+      <c r="C136" s="13"/>
+    </row>
+    <row r="137">
+      <c r="C137" s="13"/>
+    </row>
+    <row r="138">
+      <c r="C138" s="13"/>
+    </row>
+    <row r="139">
+      <c r="C139" s="13"/>
+    </row>
+    <row r="140">
+      <c r="C140" s="13"/>
+    </row>
+    <row r="141">
+      <c r="C141" s="13"/>
+    </row>
+    <row r="142">
+      <c r="C142" s="13"/>
+    </row>
+    <row r="143">
+      <c r="C143" s="13"/>
+    </row>
+    <row r="144">
+      <c r="C144" s="13"/>
+    </row>
+    <row r="145">
+      <c r="C145" s="13"/>
+    </row>
+    <row r="146">
+      <c r="C146" s="13"/>
+    </row>
+    <row r="147">
+      <c r="C147" s="13"/>
+    </row>
+    <row r="148">
+      <c r="C148" s="13"/>
+    </row>
+    <row r="149">
+      <c r="C149" s="13"/>
+    </row>
+    <row r="150">
+      <c r="C150" s="13"/>
+    </row>
+    <row r="151">
+      <c r="C151" s="13"/>
+    </row>
+    <row r="152">
+      <c r="C152" s="13"/>
+    </row>
+    <row r="153">
+      <c r="C153" s="13"/>
+    </row>
+    <row r="154">
+      <c r="C154" s="13"/>
+    </row>
+    <row r="155">
+      <c r="C155" s="13"/>
+    </row>
+    <row r="156">
+      <c r="C156" s="13"/>
+    </row>
+    <row r="157">
+      <c r="C157" s="13"/>
+    </row>
+    <row r="158">
+      <c r="C158" s="13"/>
+    </row>
+    <row r="159">
+      <c r="C159" s="13"/>
+    </row>
+    <row r="160">
+      <c r="C160" s="13"/>
+    </row>
+    <row r="161">
+      <c r="C161" s="13"/>
+    </row>
+    <row r="162">
+      <c r="C162" s="13"/>
+    </row>
+    <row r="163">
+      <c r="C163" s="13"/>
+    </row>
+    <row r="164">
+      <c r="C164" s="13"/>
+    </row>
+    <row r="165">
+      <c r="C165" s="13"/>
+    </row>
+    <row r="166">
+      <c r="C166" s="13"/>
+    </row>
+    <row r="167">
+      <c r="C167" s="13"/>
+    </row>
+    <row r="168">
+      <c r="C168" s="13"/>
+    </row>
+    <row r="169">
+      <c r="C169" s="13"/>
+    </row>
+    <row r="170">
+      <c r="C170" s="13"/>
+    </row>
+    <row r="171">
+      <c r="C171" s="13"/>
+    </row>
+    <row r="172">
+      <c r="C172" s="13"/>
+    </row>
+    <row r="173">
+      <c r="C173" s="13"/>
+    </row>
+    <row r="174">
+      <c r="C174" s="13"/>
+    </row>
+    <row r="175">
+      <c r="C175" s="13"/>
+    </row>
+    <row r="176">
+      <c r="C176" s="13"/>
+    </row>
+    <row r="177">
+      <c r="C177" s="13"/>
+    </row>
+    <row r="178">
+      <c r="C178" s="13"/>
+    </row>
+    <row r="179">
+      <c r="C179" s="13"/>
+    </row>
+    <row r="180">
+      <c r="C180" s="13"/>
+    </row>
+    <row r="181">
+      <c r="C181" s="13"/>
+    </row>
+    <row r="182">
+      <c r="C182" s="13"/>
+    </row>
+    <row r="183">
+      <c r="C183" s="13"/>
+    </row>
+    <row r="184">
+      <c r="C184" s="13"/>
+    </row>
+    <row r="185">
+      <c r="C185" s="13"/>
+    </row>
+    <row r="186">
+      <c r="C186" s="13"/>
+    </row>
+    <row r="187">
+      <c r="C187" s="13"/>
+    </row>
+    <row r="188">
+      <c r="C188" s="13"/>
+    </row>
+    <row r="189">
+      <c r="C189" s="13"/>
+    </row>
+    <row r="190">
+      <c r="C190" s="13"/>
+    </row>
+    <row r="191">
+      <c r="C191" s="13"/>
+    </row>
+    <row r="192">
+      <c r="C192" s="13"/>
+    </row>
+    <row r="193">
+      <c r="C193" s="13"/>
+    </row>
+    <row r="194">
+      <c r="C194" s="13"/>
+    </row>
+    <row r="195">
+      <c r="C195" s="13"/>
+    </row>
+    <row r="196">
+      <c r="C196" s="13"/>
+    </row>
+    <row r="197">
+      <c r="C197" s="13"/>
+    </row>
+    <row r="198">
+      <c r="C198" s="13"/>
+    </row>
+    <row r="199">
+      <c r="C199" s="13"/>
+    </row>
+    <row r="200">
+      <c r="C200" s="13"/>
+    </row>
+    <row r="201">
+      <c r="C201" s="13"/>
+    </row>
+    <row r="202">
+      <c r="C202" s="13"/>
+    </row>
+    <row r="203">
+      <c r="C203" s="13"/>
+    </row>
+    <row r="204">
+      <c r="C204" s="13"/>
+    </row>
+    <row r="205">
+      <c r="C205" s="13"/>
+    </row>
+    <row r="206">
+      <c r="C206" s="13"/>
+    </row>
+    <row r="207">
+      <c r="C207" s="13"/>
+    </row>
+    <row r="208">
+      <c r="C208" s="13"/>
+    </row>
+    <row r="209">
+      <c r="C209" s="13"/>
+    </row>
+    <row r="210">
+      <c r="C210" s="13"/>
+    </row>
+    <row r="211">
+      <c r="C211" s="13"/>
+    </row>
+    <row r="212">
+      <c r="C212" s="13"/>
+    </row>
+    <row r="213">
+      <c r="C213" s="13"/>
+    </row>
+    <row r="214">
+      <c r="C214" s="13"/>
+    </row>
+    <row r="215">
+      <c r="C215" s="13"/>
+    </row>
+    <row r="216">
+      <c r="C216" s="13"/>
+    </row>
+    <row r="217">
+      <c r="C217" s="13"/>
+    </row>
+    <row r="218">
+      <c r="C218" s="13"/>
+    </row>
+    <row r="219">
+      <c r="C219" s="13"/>
+    </row>
+    <row r="220">
+      <c r="C220" s="13"/>
+    </row>
+    <row r="221">
+      <c r="C221" s="13"/>
+    </row>
+    <row r="222">
+      <c r="C222" s="13"/>
+    </row>
+    <row r="223">
+      <c r="C223" s="13"/>
+    </row>
+    <row r="224">
+      <c r="C224" s="13"/>
+    </row>
+    <row r="225">
+      <c r="C225" s="13"/>
+    </row>
+    <row r="226">
+      <c r="C226" s="13"/>
+    </row>
+    <row r="227">
+      <c r="C227" s="13"/>
+    </row>
+    <row r="228">
+      <c r="C228" s="13"/>
+    </row>
+    <row r="229">
+      <c r="C229" s="13"/>
+    </row>
+    <row r="230">
+      <c r="C230" s="13"/>
+    </row>
+    <row r="231">
+      <c r="C231" s="13"/>
+    </row>
+    <row r="232">
+      <c r="C232" s="13"/>
+    </row>
+    <row r="233">
+      <c r="C233" s="13"/>
+    </row>
+    <row r="234">
+      <c r="C234" s="13"/>
+    </row>
+    <row r="235">
+      <c r="C235" s="13"/>
+    </row>
+    <row r="236">
+      <c r="C236" s="13"/>
+    </row>
+    <row r="237">
+      <c r="C237" s="13"/>
+    </row>
+    <row r="238">
+      <c r="C238" s="13"/>
+    </row>
+    <row r="239">
+      <c r="C239" s="13"/>
+    </row>
+    <row r="240">
+      <c r="C240" s="13"/>
+    </row>
+    <row r="241">
+      <c r="C241" s="13"/>
+    </row>
+    <row r="242">
+      <c r="C242" s="13"/>
+    </row>
+    <row r="243">
+      <c r="C243" s="13"/>
+    </row>
+    <row r="244">
+      <c r="C244" s="13"/>
+    </row>
+    <row r="245">
+      <c r="C245" s="13"/>
+    </row>
+    <row r="246">
+      <c r="C246" s="13"/>
+    </row>
+    <row r="247">
+      <c r="C247" s="13"/>
+    </row>
+    <row r="248">
+      <c r="C248" s="13"/>
+    </row>
+    <row r="249">
+      <c r="C249" s="13"/>
+    </row>
+    <row r="250">
+      <c r="C250" s="13"/>
+    </row>
+    <row r="251">
+      <c r="C251" s="13"/>
+    </row>
+    <row r="252">
+      <c r="C252" s="13"/>
+    </row>
+    <row r="253">
+      <c r="C253" s="13"/>
+    </row>
+    <row r="254">
+      <c r="C254" s="13"/>
+    </row>
+    <row r="255">
+      <c r="C255" s="13"/>
+    </row>
+    <row r="256">
+      <c r="C256" s="13"/>
+    </row>
+    <row r="257">
+      <c r="C257" s="13"/>
+    </row>
+    <row r="258">
+      <c r="C258" s="13"/>
+    </row>
+    <row r="259">
+      <c r="C259" s="13"/>
+    </row>
+    <row r="260">
+      <c r="C260" s="13"/>
+    </row>
+    <row r="261">
+      <c r="C261" s="13"/>
+    </row>
+    <row r="262">
+      <c r="C262" s="13"/>
+    </row>
+    <row r="263">
+      <c r="C263" s="13"/>
+    </row>
+    <row r="264">
+      <c r="C264" s="13"/>
+    </row>
+    <row r="265">
+      <c r="C265" s="13"/>
+    </row>
+    <row r="266">
+      <c r="C266" s="13"/>
+    </row>
+    <row r="267">
+      <c r="C267" s="13"/>
+    </row>
+    <row r="268">
+      <c r="C268" s="13"/>
+    </row>
+    <row r="269">
+      <c r="C269" s="13"/>
+    </row>
+    <row r="270">
+      <c r="C270" s="13"/>
+    </row>
+    <row r="271">
+      <c r="C271" s="13"/>
+    </row>
+    <row r="272">
+      <c r="C272" s="13"/>
+    </row>
+    <row r="273">
+      <c r="C273" s="13"/>
+    </row>
+    <row r="274">
+      <c r="C274" s="13"/>
+    </row>
+    <row r="275">
+      <c r="C275" s="13"/>
+    </row>
+    <row r="276">
+      <c r="C276" s="13"/>
+    </row>
+    <row r="277">
+      <c r="C277" s="13"/>
+    </row>
+    <row r="278">
+      <c r="C278" s="13"/>
+    </row>
+    <row r="279">
+      <c r="C279" s="13"/>
+    </row>
+    <row r="280">
+      <c r="C280" s="13"/>
+    </row>
+    <row r="281">
+      <c r="C281" s="13"/>
+    </row>
+    <row r="282">
+      <c r="C282" s="13"/>
+    </row>
+    <row r="283">
+      <c r="C283" s="13"/>
+    </row>
+    <row r="284">
+      <c r="C284" s="13"/>
+    </row>
+    <row r="285">
+      <c r="C285" s="13"/>
+    </row>
+    <row r="286">
+      <c r="C286" s="13"/>
+    </row>
+    <row r="287">
+      <c r="C287" s="13"/>
+    </row>
+    <row r="288">
+      <c r="C288" s="13"/>
+    </row>
+    <row r="289">
+      <c r="C289" s="13"/>
+    </row>
+    <row r="290">
+      <c r="C290" s="13"/>
+    </row>
+    <row r="291">
+      <c r="C291" s="13"/>
+    </row>
+    <row r="292">
+      <c r="C292" s="13"/>
+    </row>
+    <row r="293">
+      <c r="C293" s="13"/>
+    </row>
+    <row r="294">
+      <c r="C294" s="13"/>
+    </row>
+    <row r="295">
+      <c r="C295" s="13"/>
+    </row>
+    <row r="296">
+      <c r="C296" s="13"/>
+    </row>
+    <row r="297">
+      <c r="C297" s="13"/>
+    </row>
+    <row r="298">
+      <c r="C298" s="13"/>
+    </row>
+    <row r="299">
+      <c r="C299" s="13"/>
+    </row>
+    <row r="300">
+      <c r="C300" s="13"/>
+    </row>
+    <row r="301">
+      <c r="C301" s="13"/>
+    </row>
+    <row r="302">
+      <c r="C302" s="13"/>
+    </row>
+    <row r="303">
+      <c r="C303" s="13"/>
+    </row>
+    <row r="304">
+      <c r="C304" s="13"/>
+    </row>
+    <row r="305">
+      <c r="C305" s="13"/>
+    </row>
+    <row r="306">
+      <c r="C306" s="13"/>
+    </row>
+    <row r="307">
+      <c r="C307" s="13"/>
+    </row>
+    <row r="308">
+      <c r="C308" s="13"/>
+    </row>
+    <row r="309">
+      <c r="C309" s="13"/>
+    </row>
+    <row r="310">
+      <c r="C310" s="13"/>
+    </row>
+    <row r="311">
+      <c r="C311" s="13"/>
+    </row>
+    <row r="312">
+      <c r="C312" s="13"/>
+    </row>
+    <row r="313">
+      <c r="C313" s="13"/>
+    </row>
+    <row r="314">
+      <c r="C314" s="13"/>
+    </row>
+    <row r="315">
+      <c r="C315" s="13"/>
+    </row>
+    <row r="316">
+      <c r="C316" s="13"/>
+    </row>
+    <row r="317">
+      <c r="C317" s="13"/>
+    </row>
+    <row r="318">
+      <c r="C318" s="13"/>
+    </row>
+    <row r="319">
+      <c r="C319" s="13"/>
+    </row>
+    <row r="320">
+      <c r="C320" s="13"/>
+    </row>
+    <row r="321">
+      <c r="C321" s="13"/>
+    </row>
+    <row r="322">
+      <c r="C322" s="13"/>
+    </row>
+    <row r="323">
+      <c r="C323" s="13"/>
+    </row>
+    <row r="324">
+      <c r="C324" s="13"/>
+    </row>
+    <row r="325">
+      <c r="C325" s="13"/>
+    </row>
+    <row r="326">
+      <c r="C326" s="13"/>
+    </row>
+    <row r="327">
+      <c r="C327" s="13"/>
+    </row>
+    <row r="328">
+      <c r="C328" s="13"/>
+    </row>
+    <row r="329">
+      <c r="C329" s="13"/>
+    </row>
+    <row r="330">
+      <c r="C330" s="13"/>
+    </row>
+    <row r="331">
+      <c r="C331" s="13"/>
+    </row>
+    <row r="332">
+      <c r="C332" s="13"/>
+    </row>
+    <row r="333">
+      <c r="C333" s="13"/>
+    </row>
+    <row r="334">
+      <c r="C334" s="13"/>
+    </row>
+    <row r="335">
+      <c r="C335" s="13"/>
+    </row>
+    <row r="336">
+      <c r="C336" s="13"/>
+    </row>
+    <row r="337">
+      <c r="C337" s="13"/>
+    </row>
+    <row r="338">
+      <c r="C338" s="13"/>
+    </row>
+    <row r="339">
+      <c r="C339" s="13"/>
+    </row>
+    <row r="340">
+      <c r="C340" s="13"/>
+    </row>
+    <row r="341">
+      <c r="C341" s="13"/>
+    </row>
+    <row r="342">
+      <c r="C342" s="13"/>
+    </row>
+    <row r="343">
+      <c r="C343" s="13"/>
+    </row>
+    <row r="344">
+      <c r="C344" s="13"/>
+    </row>
+    <row r="345">
+      <c r="C345" s="13"/>
+    </row>
+    <row r="346">
+      <c r="C346" s="13"/>
+    </row>
+    <row r="347">
+      <c r="C347" s="13"/>
+    </row>
+    <row r="348">
+      <c r="C348" s="13"/>
+    </row>
+    <row r="349">
+      <c r="C349" s="13"/>
+    </row>
+    <row r="350">
+      <c r="C350" s="13"/>
+    </row>
+    <row r="351">
+      <c r="C351" s="13"/>
+    </row>
+    <row r="352">
+      <c r="C352" s="13"/>
+    </row>
+    <row r="353">
+      <c r="C353" s="13"/>
+    </row>
+    <row r="354">
+      <c r="C354" s="13"/>
+    </row>
+    <row r="355">
+      <c r="C355" s="13"/>
+    </row>
+    <row r="356">
+      <c r="C356" s="13"/>
+    </row>
+    <row r="357">
+      <c r="C357" s="13"/>
+    </row>
+    <row r="358">
+      <c r="C358" s="13"/>
+    </row>
+    <row r="359">
+      <c r="C359" s="13"/>
+    </row>
+    <row r="360">
+      <c r="C360" s="13"/>
+    </row>
+    <row r="361">
+      <c r="C361" s="13"/>
+    </row>
+    <row r="362">
+      <c r="C362" s="13"/>
+    </row>
+    <row r="363">
+      <c r="C363" s="13"/>
+    </row>
+    <row r="364">
+      <c r="C364" s="13"/>
+    </row>
+    <row r="365">
+      <c r="C365" s="13"/>
+    </row>
+    <row r="366">
+      <c r="C366" s="13"/>
+    </row>
+    <row r="367">
+      <c r="C367" s="13"/>
+    </row>
+    <row r="368">
+      <c r="C368" s="13"/>
+    </row>
+    <row r="369">
+      <c r="C369" s="13"/>
+    </row>
+    <row r="370">
+      <c r="C370" s="13"/>
+    </row>
+    <row r="371">
+      <c r="C371" s="13"/>
+    </row>
+    <row r="372">
+      <c r="C372" s="13"/>
+    </row>
+    <row r="373">
+      <c r="C373" s="13"/>
+    </row>
+    <row r="374">
+      <c r="C374" s="13"/>
+    </row>
+    <row r="375">
+      <c r="C375" s="13"/>
+    </row>
+    <row r="376">
+      <c r="C376" s="13"/>
+    </row>
+    <row r="377">
+      <c r="C377" s="13"/>
+    </row>
+    <row r="378">
+      <c r="C378" s="13"/>
+    </row>
+    <row r="379">
+      <c r="C379" s="13"/>
+    </row>
+    <row r="380">
+      <c r="C380" s="13"/>
+    </row>
+    <row r="381">
+      <c r="C381" s="13"/>
+    </row>
+    <row r="382">
+      <c r="C382" s="13"/>
+    </row>
+    <row r="383">
+      <c r="C383" s="13"/>
+    </row>
+    <row r="384">
+      <c r="C384" s="13"/>
+    </row>
+    <row r="385">
+      <c r="C385" s="13"/>
+    </row>
+    <row r="386">
+      <c r="C386" s="13"/>
+    </row>
+    <row r="387">
+      <c r="C387" s="13"/>
+    </row>
+    <row r="388">
+      <c r="C388" s="13"/>
+    </row>
+    <row r="389">
+      <c r="C389" s="13"/>
+    </row>
+    <row r="390">
+      <c r="C390" s="13"/>
+    </row>
+    <row r="391">
+      <c r="C391" s="13"/>
+    </row>
+    <row r="392">
+      <c r="C392" s="13"/>
+    </row>
+    <row r="393">
+      <c r="C393" s="13"/>
+    </row>
+    <row r="394">
+      <c r="C394" s="13"/>
+    </row>
+    <row r="395">
+      <c r="C395" s="13"/>
+    </row>
+    <row r="396">
+      <c r="C396" s="13"/>
+    </row>
+    <row r="397">
+      <c r="C397" s="13"/>
+    </row>
+    <row r="398">
+      <c r="C398" s="13"/>
+    </row>
+    <row r="399">
+      <c r="C399" s="13"/>
+    </row>
+    <row r="400">
+      <c r="C400" s="13"/>
+    </row>
+    <row r="401">
+      <c r="C401" s="13"/>
+    </row>
+    <row r="402">
+      <c r="C402" s="13"/>
+    </row>
+    <row r="403">
+      <c r="C403" s="13"/>
+    </row>
+    <row r="404">
+      <c r="C404" s="13"/>
+    </row>
+    <row r="405">
+      <c r="C405" s="13"/>
+    </row>
+    <row r="406">
+      <c r="C406" s="13"/>
+    </row>
+    <row r="407">
+      <c r="C407" s="13"/>
+    </row>
+    <row r="408">
+      <c r="C408" s="13"/>
+    </row>
+    <row r="409">
+      <c r="C409" s="13"/>
+    </row>
+    <row r="410">
+      <c r="C410" s="13"/>
+    </row>
+    <row r="411">
+      <c r="C411" s="13"/>
+    </row>
+    <row r="412">
+      <c r="C412" s="13"/>
+    </row>
+    <row r="413">
+      <c r="C413" s="13"/>
+    </row>
+    <row r="414">
+      <c r="C414" s="13"/>
+    </row>
+    <row r="415">
+      <c r="C415" s="13"/>
+    </row>
+    <row r="416">
+      <c r="C416" s="13"/>
+    </row>
+    <row r="417">
+      <c r="C417" s="13"/>
+    </row>
+    <row r="418">
+      <c r="C418" s="13"/>
+    </row>
+    <row r="419">
+      <c r="C419" s="13"/>
+    </row>
+    <row r="420">
+      <c r="C420" s="13"/>
+    </row>
+    <row r="421">
+      <c r="C421" s="13"/>
+    </row>
+    <row r="422">
+      <c r="C422" s="13"/>
+    </row>
+    <row r="423">
+      <c r="C423" s="13"/>
+    </row>
+    <row r="424">
+      <c r="C424" s="13"/>
+    </row>
+    <row r="425">
+      <c r="C425" s="13"/>
+    </row>
+    <row r="426">
+      <c r="C426" s="13"/>
+    </row>
+    <row r="427">
+      <c r="C427" s="13"/>
+    </row>
+    <row r="428">
+      <c r="C428" s="13"/>
+    </row>
+    <row r="429">
+      <c r="C429" s="13"/>
+    </row>
+    <row r="430">
+      <c r="C430" s="13"/>
+    </row>
+    <row r="431">
+      <c r="C431" s="13"/>
+    </row>
+    <row r="432">
+      <c r="C432" s="13"/>
+    </row>
+    <row r="433">
+      <c r="C433" s="13"/>
+    </row>
+    <row r="434">
+      <c r="C434" s="13"/>
+    </row>
+    <row r="435">
+      <c r="C435" s="13"/>
+    </row>
+    <row r="436">
+      <c r="C436" s="13"/>
+    </row>
+    <row r="437">
+      <c r="C437" s="13"/>
+    </row>
+    <row r="438">
+      <c r="C438" s="13"/>
+    </row>
+    <row r="439">
+      <c r="C439" s="13"/>
+    </row>
+    <row r="440">
+      <c r="C440" s="13"/>
+    </row>
+    <row r="441">
+      <c r="C441" s="13"/>
+    </row>
+    <row r="442">
+      <c r="C442" s="13"/>
+    </row>
+    <row r="443">
+      <c r="C443" s="13"/>
+    </row>
+    <row r="444">
+      <c r="C444" s="13"/>
+    </row>
+    <row r="445">
+      <c r="C445" s="13"/>
+    </row>
+    <row r="446">
+      <c r="C446" s="13"/>
+    </row>
+    <row r="447">
+      <c r="C447" s="13"/>
+    </row>
+    <row r="448">
+      <c r="C448" s="13"/>
+    </row>
+    <row r="449">
+      <c r="C449" s="13"/>
+    </row>
+    <row r="450">
+      <c r="C450" s="13"/>
+    </row>
+    <row r="451">
+      <c r="C451" s="13"/>
+    </row>
+    <row r="452">
+      <c r="C452" s="13"/>
+    </row>
+    <row r="453">
+      <c r="C453" s="13"/>
+    </row>
+    <row r="454">
+      <c r="C454" s="13"/>
+    </row>
+    <row r="455">
+      <c r="C455" s="13"/>
+    </row>
+    <row r="456">
+      <c r="C456" s="13"/>
+    </row>
+    <row r="457">
+      <c r="C457" s="13"/>
+    </row>
+    <row r="458">
+      <c r="C458" s="13"/>
+    </row>
+    <row r="459">
+      <c r="C459" s="13"/>
+    </row>
+    <row r="460">
+      <c r="C460" s="13"/>
+    </row>
+    <row r="461">
+      <c r="C461" s="13"/>
+    </row>
+    <row r="462">
+      <c r="C462" s="13"/>
+    </row>
+    <row r="463">
+      <c r="C463" s="13"/>
+    </row>
+    <row r="464">
+      <c r="C464" s="13"/>
+    </row>
+    <row r="465">
+      <c r="C465" s="13"/>
+    </row>
+    <row r="466">
+      <c r="C466" s="13"/>
+    </row>
+    <row r="467">
+      <c r="C467" s="13"/>
+    </row>
+    <row r="468">
+      <c r="C468" s="13"/>
+    </row>
+    <row r="469">
+      <c r="C469" s="13"/>
+    </row>
+    <row r="470">
+      <c r="C470" s="13"/>
+    </row>
+    <row r="471">
+      <c r="C471" s="13"/>
+    </row>
+    <row r="472">
+      <c r="C472" s="13"/>
+    </row>
+    <row r="473">
+      <c r="C473" s="13"/>
+    </row>
+    <row r="474">
+      <c r="C474" s="13"/>
+    </row>
+    <row r="475">
+      <c r="C475" s="13"/>
+    </row>
+    <row r="476">
+      <c r="C476" s="13"/>
+    </row>
+    <row r="477">
+      <c r="C477" s="13"/>
+    </row>
+    <row r="478">
+      <c r="C478" s="13"/>
+    </row>
+    <row r="479">
+      <c r="C479" s="13"/>
+    </row>
+    <row r="480">
+      <c r="C480" s="13"/>
+    </row>
+    <row r="481">
+      <c r="C481" s="13"/>
+    </row>
+    <row r="482">
+      <c r="C482" s="13"/>
+    </row>
+    <row r="483">
+      <c r="C483" s="13"/>
+    </row>
+    <row r="484">
+      <c r="C484" s="13"/>
+    </row>
+    <row r="485">
+      <c r="C485" s="13"/>
+    </row>
+    <row r="486">
+      <c r="C486" s="13"/>
+    </row>
+    <row r="487">
+      <c r="C487" s="13"/>
+    </row>
+    <row r="488">
+      <c r="C488" s="13"/>
+    </row>
+    <row r="489">
+      <c r="C489" s="13"/>
+    </row>
+    <row r="490">
+      <c r="C490" s="13"/>
+    </row>
+    <row r="491">
+      <c r="C491" s="13"/>
+    </row>
+    <row r="492">
+      <c r="C492" s="13"/>
+    </row>
+    <row r="493">
+      <c r="C493" s="13"/>
+    </row>
+    <row r="494">
+      <c r="C494" s="13"/>
+    </row>
+    <row r="495">
+      <c r="C495" s="13"/>
+    </row>
+    <row r="496">
+      <c r="C496" s="13"/>
+    </row>
+    <row r="497">
+      <c r="C497" s="13"/>
+    </row>
+    <row r="498">
+      <c r="C498" s="13"/>
+    </row>
+    <row r="499">
+      <c r="C499" s="13"/>
+    </row>
+    <row r="500">
+      <c r="C500" s="13"/>
+    </row>
+    <row r="501">
+      <c r="C501" s="13"/>
+    </row>
+    <row r="502">
+      <c r="C502" s="13"/>
+    </row>
+    <row r="503">
+      <c r="C503" s="13"/>
+    </row>
+    <row r="504">
+      <c r="C504" s="13"/>
+    </row>
+    <row r="505">
+      <c r="C505" s="13"/>
+    </row>
+    <row r="506">
+      <c r="C506" s="13"/>
+    </row>
+    <row r="507">
+      <c r="C507" s="13"/>
+    </row>
+    <row r="508">
+      <c r="C508" s="13"/>
+    </row>
+    <row r="509">
+      <c r="C509" s="13"/>
+    </row>
+    <row r="510">
+      <c r="C510" s="13"/>
+    </row>
+    <row r="511">
+      <c r="C511" s="13"/>
+    </row>
+    <row r="512">
+      <c r="C512" s="13"/>
+    </row>
+    <row r="513">
+      <c r="C513" s="13"/>
+    </row>
+    <row r="514">
+      <c r="C514" s="13"/>
+    </row>
+    <row r="515">
+      <c r="C515" s="13"/>
+    </row>
+    <row r="516">
+      <c r="C516" s="13"/>
+    </row>
+    <row r="517">
+      <c r="C517" s="13"/>
+    </row>
+    <row r="518">
+      <c r="C518" s="13"/>
+    </row>
+    <row r="519">
+      <c r="C519" s="13"/>
+    </row>
+    <row r="520">
+      <c r="C520" s="13"/>
+    </row>
+    <row r="521">
+      <c r="C521" s="13"/>
+    </row>
+    <row r="522">
+      <c r="C522" s="13"/>
+    </row>
+    <row r="523">
+      <c r="C523" s="13"/>
+    </row>
+    <row r="524">
+      <c r="C524" s="13"/>
+    </row>
+    <row r="525">
+      <c r="C525" s="13"/>
+    </row>
+    <row r="526">
+      <c r="C526" s="13"/>
+    </row>
+    <row r="527">
+      <c r="C527" s="13"/>
+    </row>
+    <row r="528">
+      <c r="C528" s="13"/>
+    </row>
+    <row r="529">
+      <c r="C529" s="13"/>
+    </row>
+    <row r="530">
+      <c r="C530" s="13"/>
+    </row>
+    <row r="531">
+      <c r="C531" s="13"/>
+    </row>
+    <row r="532">
+      <c r="C532" s="13"/>
+    </row>
+    <row r="533">
+      <c r="C533" s="13"/>
+    </row>
+    <row r="534">
+      <c r="C534" s="13"/>
+    </row>
+    <row r="535">
+      <c r="C535" s="13"/>
+    </row>
+    <row r="536">
+      <c r="C536" s="13"/>
+    </row>
+    <row r="537">
+      <c r="C537" s="13"/>
+    </row>
+    <row r="538">
+      <c r="C538" s="13"/>
+    </row>
+    <row r="539">
+      <c r="C539" s="13"/>
+    </row>
+    <row r="540">
+      <c r="C540" s="13"/>
+    </row>
+    <row r="541">
+      <c r="C541" s="13"/>
+    </row>
+    <row r="542">
+      <c r="C542" s="13"/>
+    </row>
+    <row r="543">
+      <c r="C543" s="13"/>
+    </row>
+    <row r="544">
+      <c r="C544" s="13"/>
+    </row>
+    <row r="545">
+      <c r="C545" s="13"/>
+    </row>
+    <row r="546">
+      <c r="C546" s="13"/>
+    </row>
+    <row r="547">
+      <c r="C547" s="13"/>
+    </row>
+    <row r="548">
+      <c r="C548" s="13"/>
+    </row>
+    <row r="549">
+      <c r="C549" s="13"/>
+    </row>
+    <row r="550">
+      <c r="C550" s="13"/>
+    </row>
+    <row r="551">
+      <c r="C551" s="13"/>
+    </row>
+    <row r="552">
+      <c r="C552" s="13"/>
+    </row>
+    <row r="553">
+      <c r="C553" s="13"/>
+    </row>
+    <row r="554">
+      <c r="C554" s="13"/>
+    </row>
+    <row r="555">
+      <c r="C555" s="13"/>
+    </row>
+    <row r="556">
+      <c r="C556" s="13"/>
+    </row>
+    <row r="557">
+      <c r="C557" s="13"/>
+    </row>
+    <row r="558">
+      <c r="C558" s="13"/>
+    </row>
+    <row r="559">
+      <c r="C559" s="13"/>
+    </row>
+    <row r="560">
+      <c r="C560" s="13"/>
+    </row>
+    <row r="561">
+      <c r="C561" s="13"/>
+    </row>
+    <row r="562">
+      <c r="C562" s="13"/>
+    </row>
+    <row r="563">
+      <c r="C563" s="13"/>
+    </row>
+    <row r="564">
+      <c r="C564" s="13"/>
+    </row>
+    <row r="565">
+      <c r="C565" s="13"/>
+    </row>
+    <row r="566">
+      <c r="C566" s="13"/>
+    </row>
+    <row r="567">
+      <c r="C567" s="13"/>
+    </row>
+    <row r="568">
+      <c r="C568" s="13"/>
+    </row>
+    <row r="569">
+      <c r="C569" s="13"/>
+    </row>
+    <row r="570">
+      <c r="C570" s="13"/>
+    </row>
+    <row r="571">
+      <c r="C571" s="13"/>
+    </row>
+    <row r="572">
+      <c r="C572" s="13"/>
+    </row>
+    <row r="573">
+      <c r="C573" s="13"/>
+    </row>
+    <row r="574">
+      <c r="C574" s="13"/>
+    </row>
+    <row r="575">
+      <c r="C575" s="13"/>
+    </row>
+    <row r="576">
+      <c r="C576" s="13"/>
+    </row>
+    <row r="577">
+      <c r="C577" s="13"/>
+    </row>
+    <row r="578">
+      <c r="C578" s="13"/>
+    </row>
+    <row r="579">
+      <c r="C579" s="13"/>
+    </row>
+    <row r="580">
+      <c r="C580" s="13"/>
+    </row>
+    <row r="581">
+      <c r="C581" s="13"/>
+    </row>
+    <row r="582">
+      <c r="C582" s="13"/>
+    </row>
+    <row r="583">
+      <c r="C583" s="13"/>
+    </row>
+    <row r="584">
+      <c r="C584" s="13"/>
+    </row>
+    <row r="585">
+      <c r="C585" s="13"/>
+    </row>
+    <row r="586">
+      <c r="C586" s="13"/>
+    </row>
+    <row r="587">
+      <c r="C587" s="13"/>
+    </row>
+    <row r="588">
+      <c r="C588" s="13"/>
+    </row>
+    <row r="589">
+      <c r="C589" s="13"/>
+    </row>
+    <row r="590">
+      <c r="C590" s="13"/>
+    </row>
+    <row r="591">
+      <c r="C591" s="13"/>
+    </row>
+    <row r="592">
+      <c r="C592" s="13"/>
+    </row>
+    <row r="593">
+      <c r="C593" s="13"/>
+    </row>
+    <row r="594">
+      <c r="C594" s="13"/>
+    </row>
+    <row r="595">
+      <c r="C595" s="13"/>
+    </row>
+    <row r="596">
+      <c r="C596" s="13"/>
+    </row>
+    <row r="597">
+      <c r="C597" s="13"/>
+    </row>
+    <row r="598">
+      <c r="C598" s="13"/>
+    </row>
+    <row r="599">
+      <c r="C599" s="13"/>
+    </row>
+    <row r="600">
+      <c r="C600" s="13"/>
+    </row>
+    <row r="601">
+      <c r="C601" s="13"/>
+    </row>
+    <row r="602">
+      <c r="C602" s="13"/>
+    </row>
+    <row r="603">
+      <c r="C603" s="13"/>
+    </row>
+    <row r="604">
+      <c r="C604" s="13"/>
+    </row>
+    <row r="605">
+      <c r="C605" s="13"/>
+    </row>
+    <row r="606">
+      <c r="C606" s="13"/>
+    </row>
+    <row r="607">
+      <c r="C607" s="13"/>
+    </row>
+    <row r="608">
+      <c r="C608" s="13"/>
+    </row>
+    <row r="609">
+      <c r="C609" s="13"/>
+    </row>
+    <row r="610">
+      <c r="C610" s="13"/>
+    </row>
+    <row r="611">
+      <c r="C611" s="13"/>
+    </row>
+    <row r="612">
+      <c r="C612" s="13"/>
+    </row>
+    <row r="613">
+      <c r="C613" s="13"/>
+    </row>
+    <row r="614">
+      <c r="C614" s="13"/>
+    </row>
+    <row r="615">
+      <c r="C615" s="13"/>
+    </row>
+    <row r="616">
+      <c r="C616" s="13"/>
+    </row>
+    <row r="617">
+      <c r="C617" s="13"/>
+    </row>
+    <row r="618">
+      <c r="C618" s="13"/>
+    </row>
+    <row r="619">
+      <c r="C619" s="13"/>
+    </row>
+    <row r="620">
+      <c r="C620" s="13"/>
+    </row>
+    <row r="621">
+      <c r="C621" s="13"/>
+    </row>
+    <row r="622">
+      <c r="C622" s="13"/>
+    </row>
+    <row r="623">
+      <c r="C623" s="13"/>
+    </row>
+    <row r="624">
+      <c r="C624" s="13"/>
+    </row>
+    <row r="625">
+      <c r="C625" s="13"/>
+    </row>
+    <row r="626">
+      <c r="C626" s="13"/>
+    </row>
+    <row r="627">
+      <c r="C627" s="13"/>
+    </row>
+    <row r="628">
+      <c r="C628" s="13"/>
+    </row>
+    <row r="629">
+      <c r="C629" s="13"/>
+    </row>
+    <row r="630">
+      <c r="C630" s="13"/>
+    </row>
+    <row r="631">
+      <c r="C631" s="13"/>
+    </row>
+    <row r="632">
+      <c r="C632" s="13"/>
+    </row>
+    <row r="633">
+      <c r="C633" s="13"/>
+    </row>
+    <row r="634">
+      <c r="C634" s="13"/>
+    </row>
+    <row r="635">
+      <c r="C635" s="13"/>
+    </row>
+    <row r="636">
+      <c r="C636" s="13"/>
+    </row>
+    <row r="637">
+      <c r="C637" s="13"/>
+    </row>
+    <row r="638">
+      <c r="C638" s="13"/>
+    </row>
+    <row r="639">
+      <c r="C639" s="13"/>
+    </row>
+    <row r="640">
+      <c r="C640" s="13"/>
+    </row>
+    <row r="641">
+      <c r="C641" s="13"/>
+    </row>
+    <row r="642">
+      <c r="C642" s="13"/>
+    </row>
+    <row r="643">
+      <c r="C643" s="13"/>
+    </row>
+    <row r="644">
+      <c r="C644" s="13"/>
+    </row>
+    <row r="645">
+      <c r="C645" s="13"/>
+    </row>
+    <row r="646">
+      <c r="C646" s="13"/>
+    </row>
+    <row r="647">
+      <c r="C647" s="13"/>
+    </row>
+    <row r="648">
+      <c r="C648" s="13"/>
+    </row>
+    <row r="649">
+      <c r="C649" s="13"/>
+    </row>
+    <row r="650">
+      <c r="C650" s="13"/>
+    </row>
+    <row r="651">
+      <c r="C651" s="13"/>
+    </row>
+    <row r="652">
+      <c r="C652" s="13"/>
+    </row>
+    <row r="653">
+      <c r="C653" s="13"/>
+    </row>
+    <row r="654">
+      <c r="C654" s="13"/>
+    </row>
+    <row r="655">
+      <c r="C655" s="13"/>
+    </row>
+    <row r="656">
+      <c r="C656" s="13"/>
+    </row>
+    <row r="657">
+      <c r="C657" s="13"/>
+    </row>
+    <row r="658">
+      <c r="C658" s="13"/>
+    </row>
+    <row r="659">
+      <c r="C659" s="13"/>
+    </row>
+    <row r="660">
+      <c r="C660" s="13"/>
+    </row>
+    <row r="661">
+      <c r="C661" s="13"/>
+    </row>
+    <row r="662">
+      <c r="C662" s="13"/>
+    </row>
+    <row r="663">
+      <c r="C663" s="13"/>
+    </row>
+    <row r="664">
+      <c r="C664" s="13"/>
+    </row>
+    <row r="665">
+      <c r="C665" s="13"/>
+    </row>
+    <row r="666">
+      <c r="C666" s="13"/>
+    </row>
+    <row r="667">
+      <c r="C667" s="13"/>
+    </row>
+    <row r="668">
+      <c r="C668" s="13"/>
+    </row>
+    <row r="669">
+      <c r="C669" s="13"/>
+    </row>
+    <row r="670">
+      <c r="C670" s="13"/>
+    </row>
+    <row r="671">
+      <c r="C671" s="13"/>
+    </row>
+    <row r="672">
+      <c r="C672" s="13"/>
+    </row>
+    <row r="673">
+      <c r="C673" s="13"/>
+    </row>
+    <row r="674">
+      <c r="C674" s="13"/>
+    </row>
+    <row r="675">
+      <c r="C675" s="13"/>
+    </row>
+    <row r="676">
+      <c r="C676" s="13"/>
+    </row>
+    <row r="677">
+      <c r="C677" s="13"/>
+    </row>
+    <row r="678">
+      <c r="C678" s="13"/>
+    </row>
+    <row r="679">
+      <c r="C679" s="13"/>
+    </row>
+    <row r="680">
+      <c r="C680" s="13"/>
+    </row>
+    <row r="681">
+      <c r="C681" s="13"/>
+    </row>
+    <row r="682">
+      <c r="C682" s="13"/>
+    </row>
+    <row r="683">
+      <c r="C683" s="13"/>
+    </row>
+    <row r="684">
+      <c r="C684" s="13"/>
+    </row>
+    <row r="685">
+      <c r="C685" s="13"/>
+    </row>
+    <row r="686">
+      <c r="C686" s="13"/>
+    </row>
+    <row r="687">
+      <c r="C687" s="13"/>
+    </row>
+    <row r="688">
+      <c r="C688" s="13"/>
+    </row>
+    <row r="689">
+      <c r="C689" s="13"/>
+    </row>
+    <row r="690">
+      <c r="C690" s="13"/>
+    </row>
+    <row r="691">
+      <c r="C691" s="13"/>
+    </row>
+    <row r="692">
+      <c r="C692" s="13"/>
+    </row>
+    <row r="693">
+      <c r="C693" s="13"/>
+    </row>
+    <row r="694">
+      <c r="C694" s="13"/>
+    </row>
+    <row r="695">
+      <c r="C695" s="13"/>
+    </row>
+    <row r="696">
+      <c r="C696" s="13"/>
+    </row>
+    <row r="697">
+      <c r="C697" s="13"/>
+    </row>
+    <row r="698">
+      <c r="C698" s="13"/>
+    </row>
+    <row r="699">
+      <c r="C699" s="13"/>
+    </row>
+    <row r="700">
+      <c r="C700" s="13"/>
+    </row>
+    <row r="701">
+      <c r="C701" s="13"/>
+    </row>
+    <row r="702">
+      <c r="C702" s="13"/>
+    </row>
+    <row r="703">
+      <c r="C703" s="13"/>
+    </row>
+    <row r="704">
+      <c r="C704" s="13"/>
+    </row>
+    <row r="705">
+      <c r="C705" s="13"/>
+    </row>
+    <row r="706">
+      <c r="C706" s="13"/>
+    </row>
+    <row r="707">
+      <c r="C707" s="13"/>
+    </row>
+    <row r="708">
+      <c r="C708" s="13"/>
+    </row>
+    <row r="709">
+      <c r="C709" s="13"/>
+    </row>
+    <row r="710">
+      <c r="C710" s="13"/>
+    </row>
+    <row r="711">
+      <c r="C711" s="13"/>
+    </row>
+    <row r="712">
+      <c r="C712" s="13"/>
+    </row>
+    <row r="713">
+      <c r="C713" s="13"/>
+    </row>
+    <row r="714">
+      <c r="C714" s="13"/>
+    </row>
+    <row r="715">
+      <c r="C715" s="13"/>
+    </row>
+    <row r="716">
+      <c r="C716" s="13"/>
+    </row>
+    <row r="717">
+      <c r="C717" s="13"/>
+    </row>
+    <row r="718">
+      <c r="C718" s="13"/>
+    </row>
+    <row r="719">
+      <c r="C719" s="13"/>
+    </row>
+    <row r="720">
+      <c r="C720" s="13"/>
+    </row>
+    <row r="721">
+      <c r="C721" s="13"/>
+    </row>
+    <row r="722">
+      <c r="C722" s="13"/>
+    </row>
+    <row r="723">
+      <c r="C723" s="13"/>
+    </row>
+    <row r="724">
+      <c r="C724" s="13"/>
+    </row>
+    <row r="725">
+      <c r="C725" s="13"/>
+    </row>
+    <row r="726">
+      <c r="C726" s="13"/>
+    </row>
+    <row r="727">
+      <c r="C727" s="13"/>
+    </row>
+    <row r="728">
+      <c r="C728" s="13"/>
+    </row>
+    <row r="729">
+      <c r="C729" s="13"/>
+    </row>
+    <row r="730">
+      <c r="C730" s="13"/>
+    </row>
+    <row r="731">
+      <c r="C731" s="13"/>
+    </row>
+    <row r="732">
+      <c r="C732" s="13"/>
+    </row>
+    <row r="733">
+      <c r="C733" s="13"/>
+    </row>
+    <row r="734">
+      <c r="C734" s="13"/>
+    </row>
+    <row r="735">
+      <c r="C735" s="13"/>
+    </row>
+    <row r="736">
+      <c r="C736" s="13"/>
+    </row>
+    <row r="737">
+      <c r="C737" s="13"/>
+    </row>
+    <row r="738">
+      <c r="C738" s="13"/>
+    </row>
+    <row r="739">
+      <c r="C739" s="13"/>
+    </row>
+    <row r="740">
+      <c r="C740" s="13"/>
+    </row>
+    <row r="741">
+      <c r="C741" s="13"/>
+    </row>
+    <row r="742">
+      <c r="C742" s="13"/>
+    </row>
+    <row r="743">
+      <c r="C743" s="13"/>
+    </row>
+    <row r="744">
+      <c r="C744" s="13"/>
+    </row>
+    <row r="745">
+      <c r="C745" s="13"/>
+    </row>
+    <row r="746">
+      <c r="C746" s="13"/>
+    </row>
+    <row r="747">
+      <c r="C747" s="13"/>
+    </row>
+    <row r="748">
+      <c r="C748" s="13"/>
+    </row>
+    <row r="749">
+      <c r="C749" s="13"/>
+    </row>
+    <row r="750">
+      <c r="C750" s="13"/>
+    </row>
+    <row r="751">
+      <c r="C751" s="13"/>
+    </row>
+    <row r="752">
+      <c r="C752" s="13"/>
+    </row>
+    <row r="753">
+      <c r="C753" s="13"/>
+    </row>
+    <row r="754">
+      <c r="C754" s="13"/>
+    </row>
+    <row r="755">
+      <c r="C755" s="13"/>
+    </row>
+    <row r="756">
+      <c r="C756" s="13"/>
+    </row>
+    <row r="757">
+      <c r="C757" s="13"/>
+    </row>
+    <row r="758">
+      <c r="C758" s="13"/>
+    </row>
+    <row r="759">
+      <c r="C759" s="13"/>
+    </row>
+    <row r="760">
+      <c r="C760" s="13"/>
+    </row>
+    <row r="761">
+      <c r="C761" s="13"/>
+    </row>
+    <row r="762">
+      <c r="C762" s="13"/>
+    </row>
+    <row r="763">
+      <c r="C763" s="13"/>
+    </row>
+    <row r="764">
+      <c r="C764" s="13"/>
+    </row>
+    <row r="765">
+      <c r="C765" s="13"/>
+    </row>
+    <row r="766">
+      <c r="C766" s="13"/>
+    </row>
+    <row r="767">
+      <c r="C767" s="13"/>
+    </row>
+    <row r="768">
+      <c r="C768" s="13"/>
+    </row>
+    <row r="769">
+      <c r="C769" s="13"/>
+    </row>
+    <row r="770">
+      <c r="C770" s="13"/>
+    </row>
+    <row r="771">
+      <c r="C771" s="13"/>
+    </row>
+    <row r="772">
+      <c r="C772" s="13"/>
+    </row>
+    <row r="773">
+      <c r="C773" s="13"/>
+    </row>
+    <row r="774">
+      <c r="C774" s="13"/>
+    </row>
+    <row r="775">
+      <c r="C775" s="13"/>
+    </row>
+    <row r="776">
+      <c r="C776" s="13"/>
+    </row>
+    <row r="777">
+      <c r="C777" s="13"/>
+    </row>
+    <row r="778">
+      <c r="C778" s="13"/>
+    </row>
+    <row r="779">
+      <c r="C779" s="13"/>
+    </row>
+    <row r="780">
+      <c r="C780" s="13"/>
+    </row>
+    <row r="781">
+      <c r="C781" s="13"/>
+    </row>
+    <row r="782">
+      <c r="C782" s="13"/>
+    </row>
+    <row r="783">
+      <c r="C783" s="13"/>
+    </row>
+    <row r="784">
+      <c r="C784" s="13"/>
+    </row>
+    <row r="785">
+      <c r="C785" s="13"/>
+    </row>
+    <row r="786">
+      <c r="C786" s="13"/>
+    </row>
+    <row r="787">
+      <c r="C787" s="13"/>
+    </row>
+    <row r="788">
+      <c r="C788" s="13"/>
+    </row>
+    <row r="789">
+      <c r="C789" s="13"/>
+    </row>
+    <row r="790">
+      <c r="C790" s="13"/>
+    </row>
+    <row r="791">
+      <c r="C791" s="13"/>
+    </row>
+    <row r="792">
+      <c r="C792" s="13"/>
+    </row>
+    <row r="793">
+      <c r="C793" s="13"/>
+    </row>
+    <row r="794">
+      <c r="C794" s="13"/>
+    </row>
+    <row r="795">
+      <c r="C795" s="13"/>
+    </row>
+    <row r="796">
+      <c r="C796" s="13"/>
+    </row>
+    <row r="797">
+      <c r="C797" s="13"/>
+    </row>
+    <row r="798">
+      <c r="C798" s="13"/>
+    </row>
+    <row r="799">
+      <c r="C799" s="13"/>
+    </row>
+    <row r="800">
+      <c r="C800" s="13"/>
+    </row>
+    <row r="801">
+      <c r="C801" s="13"/>
+    </row>
+    <row r="802">
+      <c r="C802" s="13"/>
+    </row>
+    <row r="803">
+      <c r="C803" s="13"/>
+    </row>
+    <row r="804">
+      <c r="C804" s="13"/>
+    </row>
+    <row r="805">
+      <c r="C805" s="13"/>
+    </row>
+    <row r="806">
+      <c r="C806" s="13"/>
+    </row>
+    <row r="807">
+      <c r="C807" s="13"/>
+    </row>
+    <row r="808">
+      <c r="C808" s="13"/>
+    </row>
+    <row r="809">
+      <c r="C809" s="13"/>
+    </row>
+    <row r="810">
+      <c r="C810" s="13"/>
+    </row>
+    <row r="811">
+      <c r="C811" s="13"/>
+    </row>
+    <row r="812">
+      <c r="C812" s="13"/>
+    </row>
+    <row r="813">
+      <c r="C813" s="13"/>
+    </row>
+    <row r="814">
+      <c r="C814" s="13"/>
+    </row>
+    <row r="815">
+      <c r="C815" s="13"/>
+    </row>
+    <row r="816">
+      <c r="C816" s="13"/>
+    </row>
+    <row r="817">
+      <c r="C817" s="13"/>
+    </row>
+    <row r="818">
+      <c r="C818" s="13"/>
+    </row>
+    <row r="819">
+      <c r="C819" s="13"/>
+    </row>
+    <row r="820">
+      <c r="C820" s="13"/>
+    </row>
+    <row r="821">
+      <c r="C821" s="13"/>
+    </row>
+    <row r="822">
+      <c r="C822" s="13"/>
+    </row>
+    <row r="823">
+      <c r="C823" s="13"/>
+    </row>
+    <row r="824">
+      <c r="C824" s="13"/>
+    </row>
+    <row r="825">
+      <c r="C825" s="13"/>
+    </row>
+    <row r="826">
+      <c r="C826" s="13"/>
+    </row>
+    <row r="827">
+      <c r="C827" s="13"/>
+    </row>
+    <row r="828">
+      <c r="C828" s="13"/>
+    </row>
+    <row r="829">
+      <c r="C829" s="13"/>
+    </row>
+    <row r="830">
+      <c r="C830" s="13"/>
+    </row>
+    <row r="831">
+      <c r="C831" s="13"/>
+    </row>
+    <row r="832">
+      <c r="C832" s="13"/>
+    </row>
+    <row r="833">
+      <c r="C833" s="13"/>
+    </row>
+    <row r="834">
+      <c r="C834" s="13"/>
+    </row>
+    <row r="835">
+      <c r="C835" s="13"/>
+    </row>
+    <row r="836">
+      <c r="C836" s="13"/>
+    </row>
+    <row r="837">
+      <c r="C837" s="13"/>
+    </row>
+    <row r="838">
+      <c r="C838" s="13"/>
+    </row>
+    <row r="839">
+      <c r="C839" s="13"/>
+    </row>
+    <row r="840">
+      <c r="C840" s="13"/>
+    </row>
+    <row r="841">
+      <c r="C841" s="13"/>
+    </row>
+    <row r="842">
+      <c r="C842" s="13"/>
+    </row>
+    <row r="843">
+      <c r="C843" s="13"/>
+    </row>
+    <row r="844">
+      <c r="C844" s="13"/>
+    </row>
+    <row r="845">
+      <c r="C845" s="13"/>
+    </row>
+    <row r="846">
+      <c r="C846" s="13"/>
+    </row>
+    <row r="847">
+      <c r="C847" s="13"/>
+    </row>
+    <row r="848">
+      <c r="C848" s="13"/>
+    </row>
+    <row r="849">
+      <c r="C849" s="13"/>
+    </row>
+    <row r="850">
+      <c r="C850" s="13"/>
+    </row>
+    <row r="851">
+      <c r="C851" s="13"/>
+    </row>
+    <row r="852">
+      <c r="C852" s="13"/>
+    </row>
+    <row r="853">
+      <c r="C853" s="13"/>
+    </row>
+    <row r="854">
+      <c r="C854" s="13"/>
+    </row>
+    <row r="855">
+      <c r="C855" s="13"/>
+    </row>
+    <row r="856">
+      <c r="C856" s="13"/>
+    </row>
+    <row r="857">
+      <c r="C857" s="13"/>
+    </row>
+    <row r="858">
+      <c r="C858" s="13"/>
+    </row>
+    <row r="859">
+      <c r="C859" s="13"/>
+    </row>
+    <row r="860">
+      <c r="C860" s="13"/>
+    </row>
+    <row r="861">
+      <c r="C861" s="13"/>
+    </row>
+    <row r="862">
+      <c r="C862" s="13"/>
+    </row>
+    <row r="863">
+      <c r="C863" s="13"/>
+    </row>
+    <row r="864">
+      <c r="C864" s="13"/>
+    </row>
+    <row r="865">
+      <c r="C865" s="13"/>
+    </row>
+    <row r="866">
+      <c r="C866" s="13"/>
+    </row>
+    <row r="867">
+      <c r="C867" s="13"/>
+    </row>
+    <row r="868">
+      <c r="C868" s="13"/>
+    </row>
+    <row r="869">
+      <c r="C869" s="13"/>
+    </row>
+    <row r="870">
+      <c r="C870" s="13"/>
+    </row>
+    <row r="871">
+      <c r="C871" s="13"/>
+    </row>
+    <row r="872">
+      <c r="C872" s="13"/>
+    </row>
+    <row r="873">
+      <c r="C873" s="13"/>
+    </row>
+    <row r="874">
+      <c r="C874" s="13"/>
+    </row>
+    <row r="875">
+      <c r="C875" s="13"/>
+    </row>
+    <row r="876">
+      <c r="C876" s="13"/>
+    </row>
+    <row r="877">
+      <c r="C877" s="13"/>
+    </row>
+    <row r="878">
+      <c r="C878" s="13"/>
+    </row>
+    <row r="879">
+      <c r="C879" s="13"/>
+    </row>
+    <row r="880">
+      <c r="C880" s="13"/>
+    </row>
+    <row r="881">
+      <c r="C881" s="13"/>
+    </row>
+    <row r="882">
+      <c r="C882" s="13"/>
+    </row>
+    <row r="883">
+      <c r="C883" s="13"/>
+    </row>
+    <row r="884">
+      <c r="C884" s="13"/>
+    </row>
+    <row r="885">
+      <c r="C885" s="13"/>
+    </row>
+    <row r="886">
+      <c r="C886" s="13"/>
+    </row>
+    <row r="887">
+      <c r="C887" s="13"/>
+    </row>
+    <row r="888">
+      <c r="C888" s="13"/>
+    </row>
+    <row r="889">
+      <c r="C889" s="13"/>
+    </row>
+    <row r="890">
+      <c r="C890" s="13"/>
+    </row>
+    <row r="891">
+      <c r="C891" s="13"/>
+    </row>
+    <row r="892">
+      <c r="C892" s="13"/>
+    </row>
+    <row r="893">
+      <c r="C893" s="13"/>
+    </row>
+    <row r="894">
+      <c r="C894" s="13"/>
+    </row>
+    <row r="895">
+      <c r="C895" s="13"/>
+    </row>
+    <row r="896">
+      <c r="C896" s="13"/>
+    </row>
+    <row r="897">
+      <c r="C897" s="13"/>
+    </row>
+    <row r="898">
+      <c r="C898" s="13"/>
+    </row>
+    <row r="899">
+      <c r="C899" s="13"/>
+    </row>
+    <row r="900">
+      <c r="C900" s="13"/>
+    </row>
+    <row r="901">
+      <c r="C901" s="13"/>
+    </row>
+    <row r="902">
+      <c r="C902" s="13"/>
+    </row>
+    <row r="903">
+      <c r="C903" s="13"/>
+    </row>
+    <row r="904">
+      <c r="C904" s="13"/>
+    </row>
+    <row r="905">
+      <c r="C905" s="13"/>
+    </row>
+    <row r="906">
+      <c r="C906" s="13"/>
+    </row>
+    <row r="907">
+      <c r="C907" s="13"/>
+    </row>
+    <row r="908">
+      <c r="C908" s="13"/>
+    </row>
+    <row r="909">
+      <c r="C909" s="13"/>
+    </row>
+    <row r="910">
+      <c r="C910" s="13"/>
+    </row>
+    <row r="911">
+      <c r="C911" s="13"/>
+    </row>
+    <row r="912">
+      <c r="C912" s="13"/>
+    </row>
+    <row r="913">
+      <c r="C913" s="13"/>
+    </row>
+    <row r="914">
+      <c r="C914" s="13"/>
+    </row>
+    <row r="915">
+      <c r="C915" s="13"/>
+    </row>
+    <row r="916">
+      <c r="C916" s="13"/>
+    </row>
+    <row r="917">
+      <c r="C917" s="13"/>
+    </row>
+    <row r="918">
+      <c r="C918" s="13"/>
+    </row>
+    <row r="919">
+      <c r="C919" s="13"/>
+    </row>
+    <row r="920">
+      <c r="C920" s="13"/>
+    </row>
+    <row r="921">
+      <c r="C921" s="13"/>
+    </row>
+    <row r="922">
+      <c r="C922" s="13"/>
+    </row>
+    <row r="923">
+      <c r="C923" s="13"/>
+    </row>
+    <row r="924">
+      <c r="C924" s="13"/>
+    </row>
+    <row r="925">
+      <c r="C925" s="13"/>
+    </row>
+    <row r="926">
+      <c r="C926" s="13"/>
+    </row>
+    <row r="927">
+      <c r="C927" s="13"/>
+    </row>
+    <row r="928">
+      <c r="C928" s="13"/>
+    </row>
+    <row r="929">
+      <c r="C929" s="13"/>
+    </row>
+    <row r="930">
+      <c r="C930" s="13"/>
+    </row>
+    <row r="931">
+      <c r="C931" s="13"/>
+    </row>
+    <row r="932">
+      <c r="C932" s="13"/>
+    </row>
+    <row r="933">
+      <c r="C933" s="13"/>
+    </row>
+    <row r="934">
+      <c r="C934" s="13"/>
+    </row>
+    <row r="935">
+      <c r="C935" s="13"/>
+    </row>
+    <row r="936">
+      <c r="C936" s="13"/>
+    </row>
+    <row r="937">
+      <c r="C937" s="13"/>
+    </row>
+    <row r="938">
+      <c r="C938" s="13"/>
+    </row>
+    <row r="939">
+      <c r="C939" s="13"/>
+    </row>
+    <row r="940">
+      <c r="C940" s="13"/>
+    </row>
+    <row r="941">
+      <c r="C941" s="13"/>
+    </row>
+    <row r="942">
+      <c r="C942" s="13"/>
+    </row>
+    <row r="943">
+      <c r="C943" s="13"/>
+    </row>
+    <row r="944">
+      <c r="C944" s="13"/>
+    </row>
+    <row r="945">
+      <c r="C945" s="13"/>
+    </row>
+    <row r="946">
+      <c r="C946" s="13"/>
+    </row>
+    <row r="947">
+      <c r="C947" s="13"/>
+    </row>
+    <row r="948">
+      <c r="C948" s="13"/>
+    </row>
+    <row r="949">
+      <c r="C949" s="13"/>
+    </row>
+    <row r="950">
+      <c r="C950" s="13"/>
+    </row>
+    <row r="951">
+      <c r="C951" s="13"/>
+    </row>
+    <row r="952">
+      <c r="C952" s="13"/>
+    </row>
+    <row r="953">
+      <c r="C953" s="13"/>
+    </row>
+    <row r="954">
+      <c r="C954" s="13"/>
+    </row>
+    <row r="955">
+      <c r="C955" s="13"/>
+    </row>
+    <row r="956">
+      <c r="C956" s="13"/>
+    </row>
+    <row r="957">
+      <c r="C957" s="13"/>
+    </row>
+    <row r="958">
+      <c r="C958" s="13"/>
+    </row>
+    <row r="959">
+      <c r="C959" s="13"/>
+    </row>
+    <row r="960">
+      <c r="C960" s="13"/>
+    </row>
+    <row r="961">
+      <c r="C961" s="13"/>
+    </row>
+    <row r="962">
+      <c r="C962" s="13"/>
+    </row>
+    <row r="963">
+      <c r="C963" s="13"/>
+    </row>
+    <row r="964">
+      <c r="C964" s="13"/>
+    </row>
+    <row r="965">
+      <c r="C965" s="13"/>
+    </row>
+    <row r="966">
+      <c r="C966" s="13"/>
+    </row>
+    <row r="967">
+      <c r="C967" s="13"/>
+    </row>
+    <row r="968">
+      <c r="C968" s="13"/>
+    </row>
+    <row r="969">
+      <c r="C969" s="13"/>
+    </row>
+    <row r="970">
+      <c r="C970" s="13"/>
+    </row>
+    <row r="971">
+      <c r="C971" s="13"/>
+    </row>
+    <row r="972">
+      <c r="C972" s="13"/>
+    </row>
+    <row r="973">
+      <c r="C973" s="13"/>
+    </row>
+    <row r="974">
+      <c r="C974" s="13"/>
+    </row>
+    <row r="975">
+      <c r="C975" s="13"/>
+    </row>
+    <row r="976">
+      <c r="C976" s="13"/>
+    </row>
+    <row r="977">
+      <c r="C977" s="13"/>
+    </row>
+    <row r="978">
+      <c r="C978" s="13"/>
+    </row>
+    <row r="979">
+      <c r="C979" s="13"/>
+    </row>
+    <row r="980">
+      <c r="C980" s="13"/>
+    </row>
+    <row r="981">
+      <c r="C981" s="13"/>
+    </row>
+    <row r="982">
+      <c r="C982" s="13"/>
+    </row>
+    <row r="983">
+      <c r="C983" s="13"/>
+    </row>
+    <row r="984">
+      <c r="C984" s="13"/>
+    </row>
+    <row r="985">
+      <c r="C985" s="13"/>
+    </row>
+    <row r="986">
+      <c r="C986" s="13"/>
+    </row>
+    <row r="987">
+      <c r="C987" s="13"/>
+    </row>
+    <row r="988">
+      <c r="C988" s="13"/>
+    </row>
+    <row r="989">
+      <c r="C989" s="13"/>
+    </row>
+    <row r="990">
+      <c r="C990" s="13"/>
+    </row>
+    <row r="991">
+      <c r="C991" s="13"/>
+    </row>
+    <row r="992">
+      <c r="C992" s="13"/>
+    </row>
+    <row r="993">
+      <c r="C993" s="13"/>
+    </row>
+    <row r="994">
+      <c r="C994" s="13"/>
+    </row>
+    <row r="995">
+      <c r="C995" s="13"/>
+    </row>
+    <row r="996">
+      <c r="C996" s="13"/>
+    </row>
+    <row r="997">
+      <c r="C997" s="13"/>
+    </row>
+    <row r="998">
+      <c r="C998" s="13"/>
+    </row>
+    <row r="999">
+      <c r="C999" s="13"/>
+    </row>
+    <row r="1000">
+      <c r="C1000" s="13"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -9568,24 +12569,46 @@
   <sheetData>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>106</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
